--- a/UML模型/接口表.xlsx
+++ b/UML模型/接口表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\王程毕业设计\UML模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D8E29-72A3-4E03-B0CA-167A657C92DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025FF6A-8870-42D5-BDCA-1BF9CB48928A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/UML模型/接口表.xlsx
+++ b/UML模型/接口表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\王程毕业设计\UML模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025FF6A-8870-42D5-BDCA-1BF9CB48928A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AB90F-BFBB-4F6E-BEF3-4331B7A5D4D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
   <si>
     <t>接口作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,319 @@
   </si>
   <si>
     <t>ids    单个直接传，多个用 -  分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增房间信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/building/saveBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bCode    房间编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bSize  房间面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bOwnerId  所属业主id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bLiveName   现居住人姓名（若为出租填此项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bLivePhone  现居人联系电话（若为出租填此项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bNun   居住人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bState   房间状态（0为未售出 1为业主正常居住 2为出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/building/getBuilding/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pn  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/building//getBuildingForCode/{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间号查询房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/building/getBuildingForOwnerId/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户id查询房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code  房间号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id    用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/building/updateforid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id跟新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bId   房间id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/building/deleteForId/{ids}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id删除一个或多个房间信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/instock/getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有物料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/instock/getForName/{name}/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据名称获取物料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/instock/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID更新物料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iId   物品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iWeight   物品重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmtPr   生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmtEx  过期日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMoney 购入价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iStaffId   购入人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iNum   库存数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/instock/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增物料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/instock/deleteForId/{ids}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id删除一个或多个物料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有车位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id获取车位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/parking//getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/parking/getParkingById/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id 车位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/parking/getParkingByNum/{num}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据车牌号获取车位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num 车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id跟新车位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/parking/updateById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pId   车位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pNum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车牌号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pName  联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pPhone 联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pState   车位状态 0为空 1已售出 2出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pgEnd 到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交调库申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核调库申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看调库申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/transfer/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/transfer/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userservice/transfer/getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tInid 物品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tName 物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tStaffId  申请人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tNum 申请数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tId   申请序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tState   申请状态 0待审批  1已同意  -1拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1636,324 @@
         <v>80</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UML模型/接口表.xlsx
+++ b/UML模型/接口表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\王程毕业设计\UML模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AB90F-BFBB-4F6E-BEF3-4331B7A5D4D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0C6BA-9F28-41EE-9205-C4B1478EDC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="204" windowWidth="17280" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="197">
   <si>
     <t>接口作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +883,183 @@
   </si>
   <si>
     <t>tState   申请状态 0待审批  1已同意  -1拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/dock/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/dock/updateForUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/dock/updateforRoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/gas/getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用气信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/gas/getforbuid/{buid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间号查询用气信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buid   房间id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/gas/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用气信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/gas/pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动操作缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/power/getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用电信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/power/getforbuid/{buid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buid</t>
+  </si>
+  <si>
+    <t>buid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间号查询用电信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/power/save</t>
+  </si>
+  <si>
+    <t>保存用电信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/power/pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/property/getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询物业费用信息</t>
+  </si>
+  <si>
+    <t>/Chargeservice/property/getforbuid/{buid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间号查询物业费用信息</t>
+  </si>
+  <si>
+    <t>/Chargeservice/property/savepro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存物业费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>/Chargeservice/property/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/water/getAll/{pn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用水信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/water/getforbuid/{buid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/water/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用水信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间号查询用水信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Chargeservice/water/pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/service/application/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +1067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +1120,12 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -964,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -973,6 +1156,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1954,6 +2143,220 @@
         <v>6</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
